--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="180" formatCode="&quot;일&quot;"/>
+      <numFmt numFmtId="176" formatCode="&quot;일&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,15 +417,15 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
@@ -443,7 +443,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\workspace\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,15 +417,15 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
@@ -443,7 +443,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,12 +472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -553,13 +553,13 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -576,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -654,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -675,36 +675,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\workspace\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8091E-FC62-418D-93FA-D4A234A4D500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>박한성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,13 +72,17 @@
   </si>
   <si>
     <t>0717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0723</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,11 +122,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -413,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -425,23 +427,25 @@
     <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -471,12 +475,24 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
@@ -498,6 +514,18 @@
         <v>2</v>
       </c>
       <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
     </row>
@@ -529,6 +557,18 @@
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -556,6 +596,18 @@
         <v>2</v>
       </c>
       <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
     </row>
@@ -587,6 +639,18 @@
       <c r="I6">
         <v>3</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -616,6 +680,18 @@
       <c r="I7">
         <v>3</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -645,6 +721,18 @@
       <c r="I8">
         <v>3</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -674,6 +762,18 @@
       <c r="I9">
         <v>3</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -703,6 +803,18 @@
       <c r="I10">
         <v>2</v>
       </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -730,6 +842,18 @@
         <v>3</v>
       </c>
       <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
     </row>
@@ -740,7 +864,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:I11">
+  <conditionalFormatting sqref="B2:M11">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8091E-FC62-418D-93FA-D4A234A4D500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,19 +414,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -447,7 +446,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -488,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -529,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -561,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -570,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -611,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -652,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -693,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -734,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -816,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmltj\OneDrive\Desktop\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22748FD7-E22A-4524-AE1A-E4B08D585A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="4020" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,19 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -446,7 +447,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -528,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -569,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -601,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -651,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -692,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -733,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -815,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmltj\OneDrive\Desktop\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22748FD7-E22A-4524-AE1A-E4B08D585A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5753FE6-D7A2-43BF-B35F-F0B252959782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>박한성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>0723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0725</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -427,7 +431,7 @@
     <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -446,8 +450,14 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,8 +497,20 @@
       <c r="M2">
         <v>1</v>
       </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -528,8 +550,20 @@
       <c r="M3">
         <v>3</v>
       </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -569,8 +603,20 @@
       <c r="M4">
         <v>3</v>
       </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -610,8 +656,20 @@
       <c r="M5">
         <v>3</v>
       </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -651,8 +709,20 @@
       <c r="M6">
         <v>3</v>
       </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -692,8 +762,20 @@
       <c r="M7">
         <v>3</v>
       </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -733,8 +815,20 @@
       <c r="M8">
         <v>3</v>
       </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -774,8 +868,20 @@
       <c r="M9">
         <v>3</v>
       </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -815,8 +921,20 @@
       <c r="M10">
         <v>3</v>
       </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -856,15 +974,28 @@
       <c r="M11">
         <v>3</v>
       </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:M11">
+  <conditionalFormatting sqref="B2:Q11">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5753FE6-D7A2-43BF-B35F-F0B252959782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,19 +418,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -457,7 +456,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -563,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -610,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -669,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -722,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -775,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -828,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -881,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -934,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>1</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27923"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E372CF4C-E82E-4FDA-846C-2277AD618C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,6 +38,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>0716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>박한성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,30 +91,14 @@
   </si>
   <si>
     <t>최영환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0716</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0717</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0723</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0725</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,47 +430,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.45"/>
   <cols>
-    <col min="2" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -509,9 +521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -562,9 +574,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -615,9 +627,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -668,9 +680,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -721,9 +733,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -774,9 +786,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -791,22 +803,22 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -818,18 +830,18 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -859,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>3</v>
@@ -880,9 +892,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -933,9 +945,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5753FE6-D7A2-43BF-B35F-F0B252959782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,19 +912,19 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>1</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -609,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,15 +422,15 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -456,7 +456,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -609,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -827,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\강의\싸피\Algo_Study_SSAFY12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmltj\OneDrive\Desktop\Ssafy\과제 및 실습들\Algo_Study_SSAFY12\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E31C983-B45C-425E-A68D-CD73FC07990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,11 +419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
